--- a/01-beginner/065-align-group-rotate.xlsx
+++ b/01-beginner/065-align-group-rotate.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="align group rotate" sheetId="1" r:id="rId1"/>
+    <sheet name="live" sheetId="2" r:id="rId2"/>
+    <sheet name="live (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,6 +73,881 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Star: 5 Points 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476611C2-AE83-4EA2-8CDB-04BF8DA84E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="666750"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Star: 5 Points 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F60543C-72C8-4DDE-87CA-40C7C3B4CE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2767012" y="871537"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Star: 5 Points 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D427101D-86AC-4CBE-8113-6A938F4A76FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3862387" y="500062"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Star: 5 Points 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FDBA46-0449-4004-B2CC-4454FFA6E518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="1000124"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Star: 5 Points 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DB28A6-358E-4ADE-9AF5-13C2B0DC2983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="542924"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Star: 5 Points 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9287AAB6-5371-444B-9174-23475E99969E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="750093"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>216694</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573882</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Star: 5 Points 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE30916D-61D0-4300-823A-FBDEE408CA7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2807494" y="750093"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Star: 5 Points 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968EFB81-B084-4DFA-8CE8-A045DD80D4B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4014788" y="750093"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40482</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397670</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Star: 5 Points 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4616EDA-842C-4EDF-B2E2-50C61C54E4A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5222082" y="750093"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Star: 5 Points 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D47004D-D51E-4D70-ADB9-CD7BDB65B643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="750093"/>
+          <a:ext cx="1004888" cy="1004888"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581027</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186BB0D6-5F8A-4C12-945F-4E5EBA4381BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="436962" y="3144440"/>
+          <a:ext cx="5760242" cy="1004888"/>
+          <a:chOff x="1600200" y="750093"/>
+          <a:chExt cx="5834063" cy="1004888"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Star: 5 Points 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E89D936-189D-4721-B851-720639310EEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1600200" y="750093"/>
+            <a:ext cx="1004888" cy="1004888"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Star: 5 Points 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D01A30-5BA7-4BD6-94F4-92D285BE3D8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2807494" y="750093"/>
+            <a:ext cx="1004888" cy="1004888"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Star: 5 Points 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905F5D8E-98E4-4B51-A9B3-5F2DF1DD21B9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4014788" y="750093"/>
+            <a:ext cx="1004888" cy="1004888"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Star: 5 Points 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6120347D-26EC-44F0-8CC2-1E5E5F5A8BEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5222082" y="750093"/>
+            <a:ext cx="1004888" cy="1004888"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Star: 5 Points 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DECC6F8-1920-409E-88E6-9BC2BEB5FE97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6429375" y="750093"/>
+            <a:ext cx="1004888" cy="1004888"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,6 +1247,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -378,5 +1258,44 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>